--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -412,10 +412,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="6" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
@@ -474,10 +473,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
@@ -554,10 +550,7 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="1" max="16384" width="9.850625" style="0" customWidth="1"/>
-  </x:cols>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
       <x:c r="A1" s="0" t="s">
@@ -645,10 +638,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="6" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
@@ -726,10 +718,9 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="7" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="6" width="9.850625" style="0" customWidth="1"/>
+    <x:col min="1" max="6" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -96,7 +96,13 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="2">
+  <x:cellStyleXfs count="4">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -104,13 +110,21 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="2">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -418,31 +432,31 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="F1" s="1" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
+      <x:c r="A2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="3" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="F3" s="0" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="F4" s="0" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="F5" s="0" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="F6" s="0" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
@@ -476,49 +490,49 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
+      <x:c r="A2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="3" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
+      <x:c r="A4" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s"/>
+      <x:c r="C4" s="3" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="A5" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
+      <x:c r="A6" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s"/>
+      <x:c r="C6" s="3" t="s"/>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -553,59 +567,59 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="0" t="s">
+      <x:c r="A1" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
+      <x:c r="A2" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="C2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="E2" s="3" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="A3" s="3" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="A4" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
+      <x:c r="A4" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="3" t="s"/>
+      <x:c r="C4" s="3" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="E4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="0" t="s">
+      <x:c r="A5" s="3" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
+      <x:c r="A6" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="3" t="s"/>
+      <x:c r="C6" s="3" t="s"/>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="E6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:6">
-      <x:c r="A8" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
-      <x:c r="F8" s="0" t="s"/>
+      <x:c r="A8" s="3" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="3" t="s"/>
+      <x:c r="C8" s="3" t="s"/>
+      <x:c r="D8" s="3" t="s"/>
+      <x:c r="E8" s="3" t="s"/>
+      <x:c r="F8" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -644,49 +658,49 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="B1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="D1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
+      <x:c r="B3" s="3" t="s"/>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
+      <x:c r="B4" s="3" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s"/>
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
+      <x:c r="B6" s="3" t="s"/>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -724,49 +738,49 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="1" t="s">
+      <x:c r="A1" s="2" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="1" t="s">
+      <x:c r="B1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="1" t="s">
+      <x:c r="D1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F1" s="1" t="s">
+      <x:c r="F1" s="2" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
+      <x:c r="B2" s="3" t="s"/>
+      <x:c r="D2" s="3" t="s"/>
+      <x:c r="F2" s="3" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
+      <x:c r="B3" s="3" t="s"/>
+      <x:c r="D3" s="3" t="s"/>
+      <x:c r="F3" s="3" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
+      <x:c r="B4" s="3" t="s"/>
+      <x:c r="D4" s="3" t="s"/>
+      <x:c r="F4" s="3" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s"/>
+      <x:c r="B5" s="3" t="s"/>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="F5" s="3" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
+      <x:c r="B6" s="3" t="s"/>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="F6" s="3" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -96,10 +96,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="4">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -110,21 +107,13 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="4">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -432,31 +421,31 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="F1" s="2" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="C2" s="3" t="s"/>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="3" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="F3" s="3" t="s"/>
+      <x:c r="F3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="F4" s="3" t="s"/>
+      <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="F5" s="3" t="s"/>
+      <x:c r="F5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="F6" s="3" t="s"/>
+      <x:c r="F6" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="2">
@@ -490,49 +479,49 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="C2" s="3" t="s"/>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="3" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="3" t="s">
+      <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="A4" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="E4" s="3" t="s"/>
-      <x:c r="F4" s="3" t="s"/>
+      <x:c r="A4" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="3" t="s">
+      <x:c r="A5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
+      <x:c r="A6" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -567,59 +556,59 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="3" t="s">
+      <x:c r="A1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="A2" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="C2" s="3" t="s"/>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="E2" s="3" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="A2" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="C2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="E2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="A3" s="3" t="s">
+      <x:c r="A3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="A4" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="C4" s="3" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="E4" s="3" t="s"/>
-      <x:c r="F4" s="3" t="s"/>
+      <x:c r="A4" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="C4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="E4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="A5" s="3" t="s">
+      <x:c r="A5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="A6" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="C6" s="3" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
+      <x:c r="A6" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s"/>
     </x:row>
     <x:row r="8" spans="1:6">
-      <x:c r="A8" s="3" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B8" s="3" t="s"/>
-      <x:c r="C8" s="3" t="s"/>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
-      <x:c r="F8" s="3" t="s"/>
+      <x:c r="A8" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s"/>
+      <x:c r="C8" s="0" t="s"/>
+      <x:c r="D8" s="0" t="s"/>
+      <x:c r="E8" s="0" t="s"/>
+      <x:c r="F8" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -658,49 +647,49 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="B1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="F3" s="3" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="F4" s="3" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="D5" s="3" t="s"/>
-      <x:c r="F5" s="3" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -738,49 +727,49 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
-      <x:c r="A1" s="2" t="s">
+      <x:c r="A1" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C1" s="2" t="s">
+      <x:c r="B1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D1" s="2" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="E1" s="2" t="s">
+      <x:c r="D1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="F1" s="2" t="s">
+      <x:c r="F1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
-      <x:c r="B2" s="3" t="s"/>
-      <x:c r="D2" s="3" t="s"/>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="B2" s="0" t="s"/>
+      <x:c r="D2" s="0" t="s"/>
+      <x:c r="F2" s="0" t="s"/>
     </x:row>
     <x:row r="3" spans="1:6">
-      <x:c r="B3" s="3" t="s"/>
-      <x:c r="D3" s="3" t="s"/>
-      <x:c r="F3" s="3" t="s"/>
+      <x:c r="B3" s="0" t="s"/>
+      <x:c r="D3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
-      <x:c r="B4" s="3" t="s"/>
-      <x:c r="D4" s="3" t="s"/>
-      <x:c r="F4" s="3" t="s"/>
+      <x:c r="B4" s="0" t="s"/>
+      <x:c r="D4" s="0" t="s"/>
+      <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
-      <x:c r="B5" s="3" t="s"/>
-      <x:c r="D5" s="3" t="s"/>
-      <x:c r="F5" s="3" t="s"/>
+      <x:c r="B5" s="0" t="s"/>
+      <x:c r="D5" s="0" t="s"/>
+      <x:c r="F5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
-      <x:c r="B6" s="3" t="s"/>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="F6" s="3" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="F6" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -455,14 +455,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -532,14 +525,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -620,14 +606,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -700,14 +679,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
@@ -780,14 +752,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -429,20 +429,7 @@
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="F3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="F4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="F5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="F6" s="0" t="s"/>
@@ -465,56 +452,41 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F6"/>
+  <x:dimension ref="A1:A6"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:1">
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:6">
+    </x:row>
+    <x:row r="3" spans="1:1">
       <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:1">
       <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:6">
+    </x:row>
+    <x:row r="5" spans="1:1">
       <x:c r="A5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:1">
       <x:c r="A6" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="3">
@@ -535,66 +507,46 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F8"/>
+  <x:dimension ref="A1:A8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:6">
+    <x:row r="1" spans="1:1">
       <x:c r="A1" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:1">
       <x:c r="A2" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="C2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-      <x:c r="F2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:6">
+    </x:row>
+    <x:row r="3" spans="1:1">
       <x:c r="A3" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:1">
       <x:c r="A4" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:6">
+    </x:row>
+    <x:row r="5" spans="1:1">
       <x:c r="A5" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:1">
       <x:c r="A6" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s"/>
-      <x:c r="C6" s="0" t="s"/>
-      <x:c r="D6" s="0" t="s"/>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:6">
+    </x:row>
+    <x:row r="8" spans="1:1">
       <x:c r="A8" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s"/>
-      <x:c r="C8" s="0" t="s"/>
-      <x:c r="D8" s="0" t="s"/>
-      <x:c r="E8" s="0" t="s"/>
-      <x:c r="F8" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="4">
@@ -652,18 +604,12 @@
     </x:row>
     <x:row r="3" spans="1:6">
       <x:c r="B3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:6">
       <x:c r="B4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="B5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="B6" s="0" t="s"/>
@@ -723,21 +669,6 @@
       <x:c r="D2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="B3" s="0" t="s"/>
-      <x:c r="D3" s="0" t="s"/>
-      <x:c r="F3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="F4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="F5" s="0" t="s"/>
-    </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="B6" s="0" t="s"/>
       <x:c r="D6" s="0" t="s"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -60,7 +60,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -420,7 +420,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -461,7 +461,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -516,7 +516,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A8"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
@@ -577,7 +577,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
@@ -588,7 +588,7 @@
       <x:c r="A1" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
+      <x:c r="B1" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
@@ -608,15 +608,6 @@
       <x:c r="B2" s="0" t="s"/>
       <x:c r="D2" s="0" t="s"/>
       <x:c r="F2" s="0" t="s"/>
-    </x:row>
-    <x:row r="3" spans="1:6">
-      <x:c r="B3" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="B4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="B5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="B6" s="0" t="s"/>
@@ -644,7 +635,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:F6"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Misc/CopyingRowsAndColumns.xlsx
@@ -104,22 +104,22 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="3">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="2">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="255" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
